--- a/documentation/3_1_Modele_Journal.xlsx
+++ b/documentation/3_1_Modele_Journal.xlsx
@@ -1,39 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SilvinPC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/emma_morales_studentfr_ch/Documents/EMF/3ème année/bloc 3/module 306/projet/projet-306-tercier-morales-bersier/projet-306-tercier-morales-bersier/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42886408-A80E-4CDF-AE06-F28200563DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Journal_NOM_PRENOM" sheetId="8" r:id="rId1"/>
-    <sheet name="Journal_NOM_PRENOM2" sheetId="9" r:id="rId2"/>
-    <sheet name="Journal_NOM_PRENOM3" sheetId="10" r:id="rId3"/>
-    <sheet name="Journal_NOM_PRENOM4" sheetId="11" r:id="rId4"/>
+    <sheet name="Journal_BERSIER_NOE" sheetId="8" r:id="rId1"/>
+    <sheet name="Journal_MORALES_EMMA" sheetId="9" r:id="rId2"/>
+    <sheet name="Journal_Tercier-_Elouan" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal_NOM_PRENOM!$A$5:$HI$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Journal_NOM_PRENOM2!$A$5:$HI$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Journal_NOM_PRENOM3!$A$5:$HI$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Journal_NOM_PRENOM4!$A$5:$HI$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal_NOM_PRENOM!$B:$D,Journal_NOM_PRENOM!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Journal_NOM_PRENOM2!$B:$D,Journal_NOM_PRENOM2!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">Journal_NOM_PRENOM3!$B:$D,Journal_NOM_PRENOM3!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">Journal_NOM_PRENOM4!$B:$D,Journal_NOM_PRENOM4!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal_NOM_PRENOM!$A$1:$D$83</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Journal_NOM_PRENOM2!$A$1:$D$83</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Journal_NOM_PRENOM3!$A$1:$D$83</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Journal_NOM_PRENOM4!$A$1:$D$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal_BERSIER_NOE!$A$5:$HI$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Journal_MORALES_EMMA!$A$5:$HI$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Journal_Tercier-_Elouan'!$A$5:$HI$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal_BERSIER_NOE!$B:$D,Journal_BERSIER_NOE!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Journal_MORALES_EMMA!$B:$D,Journal_MORALES_EMMA!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Journal_Tercier-_Elouan'!$B:$D,'Journal_Tercier-_Elouan'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal_BERSIER_NOE!$A$1:$D$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Journal_MORALES_EMMA!$A$1:$D$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Journal_Tercier-_Elouan'!$A$1:$D$83</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -41,6 +40,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,10 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="11">
-  <si>
-    <t>Insérer les lignes au-dessus de celle-ci !</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <r>
       <t>Projet :</t>
@@ -83,22 +81,16 @@
     </r>
   </si>
   <si>
-    <t>[Nom Prénom du candidat]</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Travail effectué</t>
   </si>
   <si>
-    <t>[H.h]</t>
-  </si>
-  <si>
     <t>Temps</t>
   </si>
   <si>
-    <t>Total &gt;</t>
+    <t>[H.h]</t>
   </si>
   <si>
     <r>
@@ -114,10 +106,143 @@
     </r>
   </si>
   <si>
-    <t>[no candidat]</t>
+    <t>Total &gt;</t>
   </si>
   <si>
     <t>Total général &gt;</t>
+  </si>
+  <si>
+    <t>Insérer les lignes au-dessus de celle-ci !</t>
+  </si>
+  <si>
+    <r>
+      <t>Projet :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Gestion d'accès</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+  </si>
+  <si>
+    <t>Morales Emma</t>
+  </si>
+  <si>
+    <t>Découverte du module + théorie</t>
+  </si>
+  <si>
+    <t>Analyse de projet + Business Case</t>
+  </si>
+  <si>
+    <t>Finalisation Business Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire le planning </t>
+  </si>
+  <si>
+    <r>
+      <t>Projet :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Gestion d'accès multifacteur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+  </si>
+  <si>
+    <t>Bersier, Noé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité de groupe </t>
+  </si>
+  <si>
+    <t>Cahier des charges</t>
+  </si>
+  <si>
+    <t>Brainstorming</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion avec le client </t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning + Journal </t>
+  </si>
+  <si>
+    <t>Mise en place de la DB</t>
+  </si>
+  <si>
+    <t>Commencement du backend</t>
+  </si>
+  <si>
+    <t>On a choisit le projet sur la gestion multifacteur</t>
+  </si>
+  <si>
+    <t>Mise en place des phidgets</t>
+  </si>
+  <si>
+    <t>J'ai pris du temps a comprendre au debut mais apres une fois que j'ai compris ça allait.-</t>
+  </si>
+  <si>
+    <t>Modification du Kanban</t>
+  </si>
+  <si>
+    <t>Elouan Tercier</t>
+  </si>
+  <si>
+    <t>faire le use case</t>
+  </si>
+  <si>
+    <t>correction uml</t>
+  </si>
+  <si>
+    <t>daily scrum</t>
+  </si>
+  <si>
+    <t>correction kanban</t>
+  </si>
+  <si>
+    <t>discution backend frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">structure du repos </t>
   </si>
 </sst>
 </file>
@@ -563,271 +688,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1983,10 +1844,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2000,7 +1861,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2008,24 +1869,24 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
+      <c r="D2" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2033,32 +1894,50 @@
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="26">
+        <v>45992</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="33"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
@@ -2069,33 +1948,45 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="13">
+        <v>45993</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
@@ -2118,14 +2009,14 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2135,16 +2026,26 @@
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="13">
+        <v>46000</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
@@ -2167,24 +2068,28 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="13">
+        <v>46006</v>
+      </c>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="7"/>
@@ -2216,10 +2121,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
@@ -2233,7 +2138,9 @@
       <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="13">
+        <v>46007</v>
+      </c>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="7"/>
@@ -2265,10 +2172,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
@@ -2282,7 +2189,9 @@
       <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
+      <c r="A41" s="13">
+        <v>46028</v>
+      </c>
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="7"/>
@@ -2314,10 +2223,10 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
@@ -2331,7 +2240,9 @@
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
+      <c r="A48" s="13">
+        <v>46028</v>
+      </c>
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="7"/>
@@ -2363,10 +2274,10 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
@@ -2380,7 +2291,9 @@
       <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
+      <c r="A55" s="13">
+        <v>46034</v>
+      </c>
       <c r="B55" s="15"/>
       <c r="C55" s="16"/>
       <c r="D55" s="7"/>
@@ -2412,10 +2325,10 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
@@ -2429,7 +2342,9 @@
       <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
+      <c r="A62" s="13">
+        <v>46035</v>
+      </c>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="7"/>
@@ -2461,10 +2376,10 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="9">
         <f>SUM(D62:D66)</f>
@@ -2510,10 +2425,10 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="9">
         <f>SUM(D69:D73)</f>
@@ -2559,10 +2474,10 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="9">
         <f>SUM(D76:D80)</f>
@@ -2579,16 +2494,16 @@
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -2680,98 +2595,98 @@
     <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="70" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="93" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="68" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="91" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="89" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="64" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="87" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="83" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="54" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="52" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="75" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2795,10 +2710,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2812,7 +2727,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2820,24 +2735,24 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
+      <c r="D2" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2845,25 +2760,33 @@
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="26">
+        <v>45992</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="33"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2881,14 +2804,14 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2898,16 +2821,26 @@
       <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="13">
+        <v>45993</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
@@ -2930,14 +2863,14 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,28 +2880,46 @@
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="13">
+        <v>46000</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
@@ -2979,14 +2930,14 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3028,10 +2979,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
@@ -3077,10 +3028,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
@@ -3126,10 +3077,10 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
@@ -3175,10 +3126,10 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
@@ -3224,10 +3175,10 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
@@ -3273,10 +3224,10 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="9">
         <f>SUM(D62:D66)</f>
@@ -3322,10 +3273,10 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="9">
         <f>SUM(D69:D73)</f>
@@ -3371,10 +3322,10 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="9">
         <f>SUM(D76:D80)</f>
@@ -3391,23 +3342,23 @@
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
       <c r="D84" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="81">
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A76:A82"/>
     <mergeCell ref="B76:C76"/>
@@ -3472,7 +3423,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -3487,103 +3437,103 @@
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3607,10 +3557,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAF0F3-3EF4-4217-9640-9C9A8BC6D0F3}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3624,7 +3574,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -3632,24 +3582,24 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
+      <c r="D2" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3657,25 +3607,33 @@
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="26">
+        <v>45992</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="33"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3693,14 +3651,14 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3710,16 +3668,26 @@
       <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="13">
+        <v>45993</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
@@ -3742,14 +3710,14 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3759,46 +3727,68 @@
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="13">
+        <v>46000</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3840,10 +3830,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
@@ -3889,10 +3879,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
@@ -3938,10 +3928,10 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
@@ -3987,10 +3977,10 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
@@ -4036,10 +4026,10 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
@@ -4085,10 +4075,10 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="9">
         <f>SUM(D62:D66)</f>
@@ -4134,10 +4124,10 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="9">
         <f>SUM(D69:D73)</f>
@@ -4183,10 +4173,10 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="9">
         <f>SUM(D76:D80)</f>
@@ -4203,23 +4193,23 @@
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
       <c r="D84" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="81">
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A76:A82"/>
     <mergeCell ref="B76:C76"/>
@@ -4284,7 +4274,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -4299,915 +4288,103 @@
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="5" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="1.4566929133858268" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Arial,Gras"&amp;14Informaticien/-ne CFC&amp;"Arial,Normal"&amp;10
-Travail pratique individuel 2023 (TPI)&amp;R&amp;"Arial,Gras"&amp;14&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
-  </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="47" max="16383" man="1"/>
-    <brk id="83" max="3" man="1"/>
-  </rowBreaks>
-  <legacyDrawingHF r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1B1010-25F2-4C04-ADFA-06E269CE0115}">
-  <dimension ref="A1:D84"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9">
-        <f>SUM(D6:D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="9">
-        <f>SUM(D13:D17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="9">
-        <f>SUM(D20:D24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="9">
-        <f>SUM(D27:D31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="9">
-        <f>SUM(D34:D38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="9">
-        <f>SUM(D41:D45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="9">
-        <f>SUM(D48:D52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="9">
-        <f>SUM(D55:D59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
-      <c r="B67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="9">
-        <f>SUM(D62:D66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="9">
-        <f>SUM(D69:D73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
-      <c r="B81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="9">
-        <f>SUM(D76:D80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="12">
-        <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5228,6 +4405,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5440,45 +4637,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal.xlsx
+++ b/documentation/3_1_Modele_Journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/emma_morales_studentfr_ch/Documents/EMF/3ème année/bloc 3/module 306/projet/projet-306-tercier-morales-bersier/projet-306-tercier-morales-bersier/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-bersier\projet-306-tercier-morales-bersier\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42886408-A80E-4CDF-AE06-F28200563DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAEC60C-ABE3-4CE2-BBEC-D7EB31E6E592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_BERSIER_NOE" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <r>
       <t>Projet :</t>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t xml:space="preserve">structure du repos </t>
+  </si>
+  <si>
+    <t>Configurer Lecteur RFID + Ecran LCD</t>
+  </si>
+  <si>
+    <t>Diagramme de sequence</t>
+  </si>
+  <si>
+    <t>Mise à jour du KanBan</t>
+  </si>
+  <si>
+    <t>On a été très efficace aujourd'hui on a très bien avancé</t>
   </si>
 </sst>
 </file>
@@ -588,6 +600,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -624,6 +640,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -634,14 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -680,8 +692,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1844,10 +1856,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1898,7 +1910,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="36">
         <v>45992</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -1910,43 +1922,43 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1959,55 +1971,55 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>45993</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2020,53 +2032,53 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="14">
         <v>46000</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2079,47 +2091,59 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="14">
         <v>46006</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
@@ -2128,49 +2152,51 @@
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="14">
         <v>46007</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
@@ -2183,45 +2209,45 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="14">
         <v>46028</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2234,45 +2260,45 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48" s="14">
         <v>46028</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -2285,45 +2311,45 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="A55" s="14">
         <v>46034</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
@@ -2336,45 +2362,45 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+      <c r="A62" s="14">
         <v>46035</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
@@ -2387,43 +2413,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -2436,43 +2462,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
@@ -2485,10 +2511,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2498,19 +2524,85 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2527,72 +2619,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -2764,7 +2790,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="36">
         <v>45992</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -2776,33 +2802,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -2815,53 +2841,53 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>45993</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2874,61 +2900,61 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="14">
         <v>46000</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2941,43 +2967,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
@@ -2990,43 +3016,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
@@ -3039,43 +3065,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
@@ -3088,43 +3114,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -3137,43 +3163,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
@@ -3186,43 +3212,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
@@ -3235,43 +3261,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -3284,43 +3310,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
@@ -3333,10 +3359,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3350,86 +3376,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3440,6 +3395,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -3557,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAF0F3-3EF4-4217-9640-9C9A8BC6D0F3}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+    <sheetView zoomScale="147" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
@@ -3611,7 +3637,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="36">
         <v>45992</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -3623,33 +3649,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3662,53 +3688,53 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>45993</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -3721,65 +3747,65 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="14">
         <v>46000</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -3792,43 +3818,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
@@ -3841,43 +3867,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
@@ -3890,43 +3916,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
@@ -3939,43 +3965,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -3988,43 +4014,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
@@ -4037,43 +4063,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
@@ -4086,43 +4112,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -4135,43 +4161,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
@@ -4184,10 +4210,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4201,86 +4227,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4291,6 +4246,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Terminé">
@@ -4405,26 +4431,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4637,32 +4643,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4679,4 +4680,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal.xlsx
+++ b/documentation/3_1_Modele_Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/emma_morales_studentfr_ch/Documents/EMF/3ème année/bloc 3/module 306/projet/projet-306-tercier-morales-bersier/projet-306-tercier-morales-bersier/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42886408-A80E-4CDF-AE06-F28200563DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F6445C1-15D5-4BF4-A4F1-D1493BB17A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_BERSIER_NOE" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="50">
   <si>
     <r>
       <t>Projet :</t>
@@ -81,6 +81,9 @@
     </r>
   </si>
   <si>
+    <t>[no candidat]</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -243,6 +246,42 @@
   </si>
   <si>
     <t xml:space="preserve">structure du repos </t>
+  </si>
+  <si>
+    <t>Configurer Lecteur RFID + Ecran LCD</t>
+  </si>
+  <si>
+    <t>Diagramme de sequence</t>
+  </si>
+  <si>
+    <t>Mise à jour du KanBan</t>
+  </si>
+  <si>
+    <t>bakend et route api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discution prof </t>
+  </si>
+  <si>
+    <t>correction db et création db + connection au backend</t>
+  </si>
+  <si>
+    <t>J'ai trouvé que aujourd'hui que j'ai été efficace. Ça c'est super bien passé.</t>
+  </si>
+  <si>
+    <t>j'ai bien avancé backend et db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction du planning </t>
+  </si>
+  <si>
+    <t>Créer des users stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place du frontend </t>
+  </si>
+  <si>
+    <t>Je trouve que une fois qu'on a vraiment bien corrigé le planning, on arrive mieux à avancer. Je trouve que j'ai bien travaillé même si j'ai eu quelques difficuletés pour faire le planning.</t>
   </si>
 </sst>
 </file>
@@ -539,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -588,6 +627,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -624,6 +683,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -634,14 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -680,8 +735,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1844,10 +1899,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1860,98 +1915,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="B4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="33"/>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="40">
         <v>45992</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="B6" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="23"/>
       <c r="D7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="23"/>
       <c r="D8" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="23"/>
       <c r="D9" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
@@ -1959,60 +2014,60 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="18">
         <v>45993</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="16"/>
+      <c r="B13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="21"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
@@ -2020,58 +2075,58 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="18">
         <v>46000</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="16"/>
+      <c r="B20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="21"/>
       <c r="D20" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="23"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
@@ -2079,103 +2134,117 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="18">
         <v>46006</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="18">
         <v>46007</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
@@ -2183,50 +2252,50 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="18">
         <v>46028</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
@@ -2234,50 +2303,50 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48" s="18">
         <v>46028</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
@@ -2285,50 +2354,50 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="A55" s="18">
         <v>46034</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
@@ -2336,50 +2405,50 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+      <c r="A62" s="18">
         <v>46035</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="9">
         <f>SUM(D62:D66)</f>
@@ -2387,48 +2456,48 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" s="9">
         <f>SUM(D69:D73)</f>
@@ -2436,48 +2505,48 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" s="9">
         <f>SUM(D76:D80)</f>
@@ -2485,64 +2554,66 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="A84" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+  <mergeCells count="77">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2559,40 +2630,33 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -2710,10 +2774,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2726,88 +2790,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="4">
+      <c r="A2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="29"/>
+      <c r="B4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="33"/>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="40">
         <v>45992</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="B6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="23"/>
       <c r="D7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
@@ -2815,58 +2879,58 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="18">
         <v>45993</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="16"/>
+      <c r="B13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="21"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
@@ -2874,66 +2938,66 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="18">
         <v>46000</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="16"/>
+      <c r="B20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="21"/>
       <c r="D20" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="23"/>
       <c r="D21" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="23"/>
       <c r="D22" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="23"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
@@ -2941,97 +3005,113 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="18">
+        <v>46006</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
@@ -3039,48 +3119,48 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
@@ -3088,48 +3168,48 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
@@ -3137,48 +3217,48 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
@@ -3186,48 +3266,48 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="9">
         <f>SUM(D62:D66)</f>
@@ -3235,48 +3315,48 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" s="9">
         <f>SUM(D69:D73)</f>
@@ -3284,48 +3364,48 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" s="9">
         <f>SUM(D76:D80)</f>
@@ -3333,103 +3413,32 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="A84" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3440,6 +3449,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -3557,10 +3637,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAF0F3-3EF4-4217-9640-9C9A8BC6D0F3}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+    <sheetView zoomScale="147" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3573,88 +3653,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="4">
+      <c r="A2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="40">
         <v>45992</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="B6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="23"/>
       <c r="D7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
@@ -3662,58 +3742,58 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="18">
         <v>45993</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="16"/>
+      <c r="B13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="21"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
@@ -3721,70 +3801,70 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="18">
         <v>46000</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="16"/>
+      <c r="B20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="21"/>
       <c r="D20" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="23"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="23"/>
       <c r="D22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="23"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
@@ -3792,97 +3872,121 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="18">
+        <v>46006</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="7">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="8"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="8"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="8">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
@@ -3890,48 +3994,48 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
@@ -3939,48 +4043,48 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
@@ -3988,48 +4092,48 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
@@ -4037,48 +4141,48 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="9">
         <f>SUM(D62:D66)</f>
@@ -4086,48 +4190,48 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" s="9">
         <f>SUM(D69:D73)</f>
@@ -4135,48 +4239,48 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" s="9">
         <f>SUM(D76:D80)</f>
@@ -4184,103 +4288,32 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="A84" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4291,100 +4324,171 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="5" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="3" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4405,26 +4509,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4637,32 +4721,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4679,4 +4758,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal.xlsx
+++ b/documentation/3_1_Modele_Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/emma_morales_studentfr_ch/Documents/EMF/3ème année/bloc 3/module 306/projet/projet-306-tercier-morales-bersier/projet-306-tercier-morales-bersier/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F6445C1-15D5-4BF4-A4F1-D1493BB17A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1F6445C1-15D5-4BF4-A4F1-D1493BB17A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2ABF0C6-4E6D-4B4D-9A2E-002874091816}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_BERSIER_NOE" sheetId="8" r:id="rId1"/>
@@ -643,10 +643,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -683,10 +679,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -697,6 +689,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -735,8 +735,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1899,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33:D33"/>
@@ -1953,7 +1953,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="30">
         <v>45992</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -1965,43 +1965,43 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2014,55 +2014,55 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>45993</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -2075,53 +2075,53 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>46000</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2134,15 +2134,15 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>46006</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -2154,7 +2154,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="15" t="s">
         <v>39</v>
       </c>
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="15" t="s">
         <v>40</v>
       </c>
@@ -2174,19 +2174,19 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -2199,47 +2199,47 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>46007</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2252,45 +2252,45 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>46028</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -2303,45 +2303,45 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+      <c r="A48" s="17">
         <v>46028</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2354,45 +2354,45 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18">
+      <c r="A55" s="17">
         <v>46034</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -2405,45 +2405,45 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18">
+      <c r="A62" s="17">
         <v>46035</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -2456,43 +2456,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -2505,43 +2505,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -2554,10 +2554,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2571,49 +2571,42 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2630,33 +2623,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -2774,10 +2774,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:D26"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2828,7 +2828,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="30">
         <v>45992</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -2840,33 +2840,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2879,53 +2879,53 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>45993</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -2938,61 +2938,61 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>46000</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3005,57 +3005,57 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>46006</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3068,45 +3068,47 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
+      <c r="A34" s="17">
+        <v>46007</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -3119,43 +3121,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -3168,43 +3170,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -3217,43 +3219,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -3266,43 +3268,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -3315,43 +3317,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -3364,43 +3366,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -3413,10 +3415,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3430,15 +3432,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3449,77 +3522,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -3691,7 +3693,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="30">
         <v>45992</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -3703,33 +3705,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -3742,53 +3744,53 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>45993</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -3801,65 +3803,65 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>46000</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3872,65 +3874,65 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>46006</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="8">
         <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3943,45 +3945,45 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -3994,43 +3996,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -4043,43 +4045,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -4092,43 +4094,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -4141,43 +4143,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -4190,43 +4192,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -4239,43 +4241,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -4288,10 +4290,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4305,15 +4307,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4324,77 +4397,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Terminé">
@@ -4509,6 +4511,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4721,15 +4732,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4742,6 +4744,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4756,14 +4766,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/3_1_Modele_Journal.xlsx
+++ b/documentation/3_1_Modele_Journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/emma_morales_studentfr_ch/Documents/EMF/3ème année/bloc 3/module 306/projet/projet-306-tercier-morales-bersier/projet-306-tercier-morales-bersier/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-bersier\projet-306-tercier-morales-bersier\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1F6445C1-15D5-4BF4-A4F1-D1493BB17A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2ABF0C6-4E6D-4B4D-9A2E-002874091816}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{012CE9C3-A022-4FFF-81B7-A1850BA536C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_BERSIER_NOE" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
   <si>
     <r>
       <t>Projet :</t>
@@ -282,6 +282,33 @@
   </si>
   <si>
     <t>Je trouve que une fois qu'on a vraiment bien corrigé le planning, on arrive mieux à avancer. Je trouve que j'ai bien travaillé même si j'ai eu quelques difficuletés pour faire le planning.</t>
+  </si>
+  <si>
+    <t>réunion</t>
+  </si>
+  <si>
+    <t>backend  route admin</t>
+  </si>
+  <si>
+    <t>frontend discu</t>
+  </si>
+  <si>
+    <t>Commencement du frontend</t>
+  </si>
+  <si>
+    <t>Discussion avec le client</t>
+  </si>
+  <si>
+    <t>Je trouve que j'ai bien travaillé, et on s'entend bien avec mon équipe</t>
+  </si>
+  <si>
+    <t>Faire les autorisations aux portes</t>
+  </si>
+  <si>
+    <t>Faire le pointage</t>
+  </si>
+  <si>
+    <t>J'ai eu quelques difficulté à mettre en place le pointage mais j'ai réussi à résoudre le problème très vite.</t>
   </si>
 </sst>
 </file>
@@ -643,6 +670,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -679,6 +710,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -689,14 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -735,8 +762,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1899,10 +1926,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33:D33"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1953,7 +1980,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="40">
         <v>45992</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -1965,43 +1992,43 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2014,55 +2041,55 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+      <c r="A13" s="18">
         <v>45993</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -2075,53 +2102,53 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20" s="18">
         <v>46000</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2134,15 +2161,15 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+      <c r="A27" s="18">
         <v>46006</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -2154,7 +2181,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="15" t="s">
         <v>39</v>
       </c>
@@ -2164,7 +2191,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="15" t="s">
         <v>40</v>
       </c>
@@ -2174,19 +2201,19 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -2199,47 +2226,55 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
+      <c r="A34" s="18">
         <v>46007</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2248,49 +2283,51 @@
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17">
+      <c r="A41" s="18">
         <v>46028</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -2303,45 +2340,45 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
+      <c r="A48" s="18">
         <v>46028</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2354,45 +2391,45 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17">
+      <c r="A55" s="18">
         <v>46034</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -2405,45 +2442,45 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17">
+      <c r="A62" s="18">
         <v>46035</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -2456,43 +2493,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -2505,43 +2542,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -2554,10 +2591,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="29"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="28"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2567,19 +2604,80 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2596,67 +2694,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -2774,10 +2811,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2828,7 +2865,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="40">
         <v>45992</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -2840,33 +2877,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2879,53 +2916,53 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+      <c r="A13" s="18">
         <v>45993</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -2938,61 +2975,61 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20" s="18">
         <v>46000</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3005,57 +3042,57 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+      <c r="A27" s="18">
         <v>46006</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3068,47 +3105,55 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
+      <c r="A34" s="18">
         <v>46007</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -3117,47 +3162,49 @@
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -3170,43 +3217,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -3219,43 +3266,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -3268,43 +3315,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -3317,43 +3364,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -3366,43 +3413,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -3415,10 +3462,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="29"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="28"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3428,90 +3475,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3522,6 +3498,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -3642,7 +3689,7 @@
     <sheetView zoomScale="147" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3693,7 +3740,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="40">
         <v>45992</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -3705,33 +3752,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -3744,53 +3791,53 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+      <c r="A13" s="18">
         <v>45993</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -3803,65 +3850,65 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20" s="18">
         <v>46000</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3874,65 +3921,65 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+      <c r="A27" s="18">
         <v>46006</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="8">
         <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3945,45 +3992,59 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="18">
+        <v>46007</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="7">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="8">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="8">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -3992,47 +4053,51 @@
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="18">
+        <v>46007</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -4045,43 +4110,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -4094,43 +4159,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -4143,43 +4208,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -4192,43 +4257,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -4241,43 +4306,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -4290,10 +4355,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="29"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="28"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4303,90 +4368,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4397,100 +4391,171 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="5" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="3" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4511,15 +4576,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4732,6 +4788,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4744,14 +4809,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4770,19 +4827,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal.xlsx
+++ b/documentation/3_1_Modele_Journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-bersier\projet-306-tercier-morales-bersier\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/emma_morales_studentfr_ch/Documents/EMF/3ème année/bloc 3/module 306/projet-306-tercier-morales-bersier/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{012CE9C3-A022-4FFF-81B7-A1850BA536C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{012CE9C3-A022-4FFF-81B7-A1850BA536C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C02747E-DD8A-4AE7-8677-C74AF0A768A3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_BERSIER_NOE" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
   <si>
     <r>
       <t>Projet :</t>
@@ -309,6 +309,30 @@
   </si>
   <si>
     <t>J'ai eu quelques difficulté à mettre en place le pointage mais j'ai réussi à résoudre le problème très vite.</t>
+  </si>
+  <si>
+    <t>Discussion avec le groupe / debug en groupe</t>
+  </si>
+  <si>
+    <t>Finir de faire l'interface de l'authentification + l'authentification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire l'interface pour journal de présence + fonctionnement du journal de présence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avancement de la documentation </t>
+  </si>
+  <si>
+    <t>Je trouve que j'ai bien travaillé, je fais les tâches dans les bons temps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finir le fonctionnement du journal de présence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commencer l'interface utilisateur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je trouve que j'ai bien avancé, j'ai même pu commencer une tâche de la V3. </t>
   </si>
 </sst>
 </file>
@@ -670,10 +694,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -710,10 +730,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -724,6 +740,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -762,8 +786,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1926,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
       <selection pane="bottomLeft" activeCell="B40" sqref="B40:D40"/>
@@ -1980,7 +2004,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="30">
         <v>45992</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -1992,43 +2016,43 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2041,55 +2065,55 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>45993</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -2102,53 +2126,53 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>46000</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2161,15 +2185,15 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>46006</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -2181,7 +2205,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="15" t="s">
         <v>39</v>
       </c>
@@ -2191,7 +2215,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="15" t="s">
         <v>40</v>
       </c>
@@ -2201,19 +2225,19 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -2226,55 +2250,55 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>46007</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2287,47 +2311,47 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>46028</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -2340,45 +2364,45 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+      <c r="A48" s="17">
         <v>46028</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2391,45 +2415,45 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18">
+      <c r="A55" s="17">
         <v>46034</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -2442,45 +2466,45 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18">
+      <c r="A62" s="17">
         <v>46035</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -2493,43 +2517,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -2542,43 +2566,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -2591,10 +2615,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2608,49 +2632,42 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2667,33 +2684,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -2811,10 +2835,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40:D40"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2865,7 +2889,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="30">
         <v>45992</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -2877,33 +2901,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2916,53 +2940,53 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>45993</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -2971,65 +2995,65 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>46000</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3042,57 +3066,57 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>46006</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3105,55 +3129,55 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>46007</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -3166,45 +3190,63 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="17">
+        <v>46027</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -3213,47 +3255,59 @@
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="17">
+        <v>46028</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="8"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -3262,47 +3316,49 @@
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -3315,43 +3371,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -3364,43 +3420,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -3413,43 +3469,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -3462,10 +3518,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3475,19 +3531,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3498,77 +3625,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -3740,7 +3796,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="30">
         <v>45992</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -3752,33 +3808,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -3791,53 +3847,53 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>45993</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -3850,65 +3906,65 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>46000</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3921,65 +3977,65 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>46006</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="8">
         <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3992,59 +4048,59 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>46007</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7">
         <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="8">
         <v>0.7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -4057,47 +4113,47 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="24" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>46007</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -4110,43 +4166,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -4159,43 +4215,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -4208,43 +4264,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -4257,43 +4313,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -4306,43 +4362,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -4355,10 +4411,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4372,15 +4428,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4391,77 +4518,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="Terminé">
@@ -4576,6 +4632,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4788,27 +4864,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4825,29 +4906,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal.xlsx
+++ b/documentation/3_1_Modele_Journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-bersier\projet-306-tercier-morales-bersier\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\BersierN04\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{012CE9C3-A022-4FFF-81B7-A1850BA536C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC8D265-1C83-4238-817E-722DE2E9B57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_BERSIER_NOE" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
   <si>
     <r>
       <t>Projet :</t>
@@ -309,6 +309,75 @@
   </si>
   <si>
     <t>J'ai eu quelques difficulté à mettre en place le pointage mais j'ai réussi à résoudre le problème très vite.</t>
+  </si>
+  <si>
+    <t>discution, reunion, planing, dailyscrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">developpement du dashboard admin avec gestion des acces porte membre role </t>
+  </si>
+  <si>
+    <t>deploiment api sur vercel</t>
+  </si>
+  <si>
+    <t>configuration raspéry pi avec noe</t>
+  </si>
+  <si>
+    <t>création d'un script d'installation automatique des pi de pointage et de porte</t>
+  </si>
+  <si>
+    <t>bon fonctionnement des script content de moi</t>
+  </si>
+  <si>
+    <t>Daily Scrum,  Sprint Planning, Spint Retrospective</t>
+  </si>
+  <si>
+    <t>Diagramme d'acivité</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Raspberry pi</t>
+  </si>
+  <si>
+    <t>J'ai été très efficace lors de ma documentation</t>
+  </si>
+  <si>
+    <t>quelques petits problèmes au nivaeau de la configuration du raspberry mais le reste est super bien passé</t>
+  </si>
+  <si>
+    <t>05.01.26</t>
+  </si>
+  <si>
+    <t>Discussion avec le groupe / debug en groupe</t>
+  </si>
+  <si>
+    <t>Finir de faire l'interface de l'authentification + l'authentification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire l'interface pour journal de présence + fonctionnement du journal de présence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avancement de la documentation </t>
+  </si>
+  <si>
+    <t>Réflexion personnelle ↓↓↓</t>
+  </si>
+  <si>
+    <t>Je trouve que j'ai bien travaillé, je fais les tâches dans les bons temps</t>
+  </si>
+  <si>
+    <t>06.01.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finir le fonctionnement du journal de présence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commencer l'interface utilisateur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je trouve que j'ai bien avancé, j'ai même pu commencer une tâche de la V3. </t>
   </si>
 </sst>
 </file>
@@ -1576,6 +1645,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1926,10 +1999,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40:D40"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2296,23 +2369,35 @@
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
-        <v>46028</v>
-      </c>
-      <c r="B41" s="20"/>
+        <v>46027</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C41" s="21"/>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
+      <c r="B42" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="C42" s="23"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
@@ -2336,12 +2421,14 @@
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
+      <c r="B47" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="C47" s="29"/>
       <c r="D47" s="30"/>
     </row>
@@ -2349,15 +2436,23 @@
       <c r="A48" s="18">
         <v>46028</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C48" s="21"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="C49" s="23"/>
-      <c r="D49" s="8"/>
+      <c r="D49" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
@@ -2387,12 +2482,14 @@
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="C54" s="29"/>
       <c r="D54" s="30"/>
     </row>
@@ -2603,8 +2700,8 @@
         <v>8</v>
       </c>
       <c r="D83" s="12">
-        <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>28</v>
+        <f>D11+D18+D25+D32+D39+'Journal_Tercier-_Elouan'!D46+'Journal_Tercier-_Elouan'!D53+D60+D67+D74+D81</f>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2617,6 +2714,19 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -2624,19 +2734,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
     <mergeCell ref="A76:A82"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -2659,14 +2756,14 @@
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
     <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -2696,99 +2793,99 @@
     <mergeCell ref="B38:C38"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="71" priority="27" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="70" priority="28" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="69" priority="25" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="68" priority="26" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="66" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="64" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="62" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:D60">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D67">
+    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="20" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:D74">
+    <cfRule type="containsText" dxfId="57" priority="17" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="18" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76:D81">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2811,10 +2908,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40:D40"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3174,28 +3271,46 @@
       <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C41" s="21"/>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
+      <c r="B42" s="22" t="s">
+        <v>73</v>
+      </c>
       <c r="C42" s="23"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
+      <c r="B44" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="C44" s="23"/>
-      <c r="D44" s="8"/>
+      <c r="D44" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
@@ -3206,33 +3321,44 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="9">
-        <f>SUM(D41:D45)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
+      <c r="B47" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="C47" s="29"/>
       <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C48" s="21"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="C49" s="23"/>
-      <c r="D49" s="8"/>
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
@@ -3255,19 +3381,20 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="9">
-        <f>SUM(D48:D52)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="C54" s="29"/>
       <c r="D54" s="30"/>
     </row>
@@ -3475,7 +3602,7 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3571,98 +3698,98 @@
     <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="51" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="50" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="49" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="48" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="44" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="43" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="42" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="40" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3686,10 +3813,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAF0F3-3EF4-4217-9640-9C9A8BC6D0F3}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView zoomScale="147" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft"/>
+    <sheetView zoomScale="108" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:A40"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4066,23 +4193,35 @@
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
-        <v>46007</v>
-      </c>
-      <c r="B41" s="20"/>
+        <v>46027</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C41" s="21"/>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
+      <c r="B42" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="C42" s="23"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
@@ -4106,7 +4245,7 @@
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4116,16 +4255,26 @@
       <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="18">
+        <v>46028</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C48" s="21"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="C49" s="23"/>
-      <c r="D49" s="8"/>
+      <c r="D49" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
@@ -4155,12 +4304,14 @@
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="C54" s="29"/>
       <c r="D54" s="30"/>
     </row>
@@ -4366,9 +4517,9 @@
       <c r="C83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="12">
-        <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>26</v>
+      <c r="D83" s="12" t="e">
+        <f>D11+D18+D25+D32+D39+#REF!+#REF!+D60+D67+D74+D81</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4464,98 +4615,98 @@
     <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="30" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="5" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="9" priority="27" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="28" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4838,16 +4989,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>